--- a/R-Car Starter Kit.xlsx
+++ b/R-Car Starter Kit.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20403"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9CB02B-8644-408F-B80E-D222B851ADB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,7 +211,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -742,6 +741,22 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -799,22 +814,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -848,7 +847,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -971,7 +970,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1026,7 +1025,7 @@
         <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1081,7 +1080,7 @@
         <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1136,7 +1135,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,7 +1190,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1246,7 +1245,7 @@
         <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1301,7 +1300,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1356,7 +1355,7 @@
         <xdr:cNvPr id="23" name="TextBox 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,7 +1410,7 @@
         <xdr:cNvPr id="25" name="TextBox 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1466,7 +1465,7 @@
         <xdr:cNvPr id="26" name="TextBox 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,7 +1525,7 @@
         <xdr:cNvPr id="33" name="Picture 32" descr="https://admin.logicpower.in/prodimg/APGDT001.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00B5C2E5-6726-4DA7-921A-086F41E1AD14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00B5C2E5-6726-4DA7-921A-086F41E1AD14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1579,7 @@
         <xdr:cNvPr id="39" name="TextBox 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F03D9D2E-64DC-43C1-8FB2-6208F48A9CB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F03D9D2E-64DC-43C1-8FB2-6208F48A9CB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1634,7 @@
         <xdr:cNvPr id="40" name="TextBox 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F00AD4F-FDB8-4C72-B398-DD2171085307}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F00AD4F-FDB8-4C72-B398-DD2171085307}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1694,7 @@
         <xdr:cNvPr id="44" name="Picture 43" descr="Beaglebone Black Devkit BeagleBone Rev C">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C165D11F-94C8-41DC-9188-E4C2503B7F6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C165D11F-94C8-41DC-9188-E4C2503B7F6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1756,7 +1755,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB7F41A5-6845-464C-A60F-DA69BE580B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB7F41A5-6845-464C-A60F-DA69BE580B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1794,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B43E93-4CCC-44C4-85B5-C094D9A97108}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83B43E93-4CCC-44C4-85B5-C094D9A97108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1849,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA45FCD-F516-4C82-95F6-E650ED1B6EDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FA45FCD-F516-4C82-95F6-E650ED1B6EDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1905,7 +1904,7 @@
         <xdr:cNvPr id="24" name="TextBox 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0876618A-03D3-4CF5-BE68-AEFE8AC6A4AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0876618A-03D3-4CF5-BE68-AEFE8AC6A4AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1960,7 +1959,7 @@
         <xdr:cNvPr id="27" name="TextBox 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7C82C4-AA57-46F3-A06C-AB94AE362533}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C7C82C4-AA57-46F3-A06C-AB94AE362533}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2015,7 +2014,7 @@
         <xdr:cNvPr id="28" name="TextBox 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90879FEA-8D2C-4C82-8403-013E1CA9EC82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90879FEA-8D2C-4C82-8403-013E1CA9EC82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2070,7 +2069,7 @@
         <xdr:cNvPr id="29" name="TextBox 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F85E8FD7-7905-40F8-969A-03A4FAC9EFAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F85E8FD7-7905-40F8-969A-03A4FAC9EFAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2124,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34651A3A-8808-4F69-A08A-7EBC3496CE22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34651A3A-8808-4F69-A08A-7EBC3496CE22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2179,7 @@
         <xdr:cNvPr id="31" name="TextBox 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8810A9B-ED67-485E-9B2F-E51C66F2FDDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8810A9B-ED67-485E-9B2F-E51C66F2FDDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2234,7 @@
         <xdr:cNvPr id="32" name="TextBox 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273BFC47-5CF9-48A3-BA98-E343C50AAF13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{273BFC47-5CF9-48A3-BA98-E343C50AAF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,7 +2289,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC42D59A-2426-4151-A417-ABBAF41054AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC42D59A-2426-4151-A417-ABBAF41054AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2345,7 +2344,7 @@
         <xdr:cNvPr id="35" name="TextBox 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57C72B77-9485-47E5-8AC7-5EFA43B1E954}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57C72B77-9485-47E5-8AC7-5EFA43B1E954}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2399,7 @@
         <xdr:cNvPr id="36" name="TextBox 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA1DEC6-5DC7-4C32-9902-D69535760665}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DA1DEC6-5DC7-4C32-9902-D69535760665}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2459,7 @@
         <xdr:cNvPr id="41" name="Picture 40" descr="https://m.media-amazon.com/images/I/61cM2DPwCtL._SX425_.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E282C4-070C-462C-9F6C-210233B93735}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65E282C4-070C-462C-9F6C-210233B93735}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2516,7 +2515,7 @@
         <xdr:cNvPr id="42" name="TextBox 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992B304D-A2C5-49CC-BDD2-0BBA8681F42E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{992B304D-A2C5-49CC-BDD2-0BBA8681F42E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,7 +2570,7 @@
         <xdr:cNvPr id="43" name="TextBox 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE3F138-CECF-4B92-8386-E1844511DA57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FE3F138-CECF-4B92-8386-E1844511DA57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2625,7 @@
         <xdr:cNvPr id="45" name="TextBox 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE193C29-0427-44B3-A69C-15CCB0A47A26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE193C29-0427-44B3-A69C-15CCB0A47A26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2681,7 +2680,7 @@
         <xdr:cNvPr id="46" name="TextBox 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D85D19B-57C0-48D3-9257-7EACB3343533}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D85D19B-57C0-48D3-9257-7EACB3343533}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2736,7 +2735,7 @@
         <xdr:cNvPr id="47" name="TextBox 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2355C7F1-34A5-42D7-97F3-8EAB10580A21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2355C7F1-34A5-42D7-97F3-8EAB10580A21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2791,7 +2790,7 @@
         <xdr:cNvPr id="48" name="TextBox 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E387DB9-341F-42A7-9BCD-360A029C9067}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E387DB9-341F-42A7-9BCD-360A029C9067}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2846,7 +2845,7 @@
         <xdr:cNvPr id="49" name="TextBox 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9312D486-847F-49A0-A7A5-6BA0F3C2865E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9312D486-847F-49A0-A7A5-6BA0F3C2865E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2901,7 +2900,7 @@
         <xdr:cNvPr id="50" name="TextBox 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E3CDF9-E266-49B4-A3F5-EDA0B4E24165}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27E3CDF9-E266-49B4-A3F5-EDA0B4E24165}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2956,7 +2955,7 @@
         <xdr:cNvPr id="51" name="TextBox 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DEF42F-9244-4C80-B157-BDA9FB20CF3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7DEF42F-9244-4C80-B157-BDA9FB20CF3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3011,7 +3010,7 @@
         <xdr:cNvPr id="52" name="TextBox 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE4A41C-0B62-4699-9FA3-40D5CC93E98F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AFE4A41C-0B62-4699-9FA3-40D5CC93E98F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3066,7 +3065,7 @@
         <xdr:cNvPr id="54" name="TextBox 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12EA0625-0C42-4E9D-9F3D-E1C71E6772DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12EA0625-0C42-4E9D-9F3D-E1C71E6772DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3121,7 +3120,7 @@
         <xdr:cNvPr id="55" name="TextBox 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05780C99-847C-48AA-8FE5-E4937ACFEF21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05780C99-847C-48AA-8FE5-E4937ACFEF21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3176,7 +3175,7 @@
         <xdr:cNvPr id="58" name="TextBox 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C438EF-03D0-4B9C-8F62-D987796EC9B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5C438EF-03D0-4B9C-8F62-D987796EC9B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3231,7 +3230,7 @@
         <xdr:cNvPr id="59" name="TextBox 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7BCC51F-2201-420B-B860-427DC4F60A43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7BCC51F-2201-420B-B860-427DC4F60A43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3286,7 +3285,7 @@
         <xdr:cNvPr id="60" name="TextBox 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8F2434-633C-4261-9734-2D304563B769}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A8F2434-633C-4261-9734-2D304563B769}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3341,7 +3340,7 @@
         <xdr:cNvPr id="61" name="TextBox 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6722F89F-27FD-4AF9-84E3-3E5566329F27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6722F89F-27FD-4AF9-84E3-3E5566329F27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3396,7 +3395,7 @@
         <xdr:cNvPr id="62" name="TextBox 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B1CC0E8-A9B9-4102-9254-248C6FBB853F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B1CC0E8-A9B9-4102-9254-248C6FBB853F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3451,7 +3450,7 @@
         <xdr:cNvPr id="63" name="TextBox 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC014020-5471-463E-9A13-FF94356F868E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC014020-5471-463E-9A13-FF94356F868E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3506,7 +3505,7 @@
         <xdr:cNvPr id="64" name="TextBox 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4238558-C130-425B-852C-43C95330F830}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4238558-C130-425B-852C-43C95330F830}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3561,7 +3560,7 @@
         <xdr:cNvPr id="65" name="TextBox 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B37CD1-E903-43B8-9BFE-BD4F75FE994A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9B37CD1-E903-43B8-9BFE-BD4F75FE994A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3616,7 +3615,7 @@
         <xdr:cNvPr id="66" name="TextBox 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5537E3F-C36B-4EAF-90CB-C6693D15325A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5537E3F-C36B-4EAF-90CB-C6693D15325A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3671,7 +3670,7 @@
         <xdr:cNvPr id="67" name="TextBox 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DA816F-FAF2-4707-A562-A72752902A1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{58DA816F-FAF2-4707-A562-A72752902A1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3726,7 +3725,7 @@
         <xdr:cNvPr id="68" name="TextBox 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A6DFCB-1E30-4CE8-8142-3194FD21F17B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9A6DFCB-1E30-4CE8-8142-3194FD21F17B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3781,7 +3780,7 @@
         <xdr:cNvPr id="69" name="TextBox 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB3CF155-48C2-4481-A590-733F690AC097}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB3CF155-48C2-4481-A590-733F690AC097}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3836,7 +3835,7 @@
         <xdr:cNvPr id="71" name="TextBox 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764EF4C7-E0F1-491F-BD43-3EC9A516034C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{764EF4C7-E0F1-491F-BD43-3EC9A516034C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3891,7 +3890,7 @@
         <xdr:cNvPr id="72" name="TextBox 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00308C18-20AF-4DC6-8427-33270B9E2E6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00308C18-20AF-4DC6-8427-33270B9E2E6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3946,7 +3945,7 @@
         <xdr:cNvPr id="73" name="TextBox 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636AC2E0-387D-4443-A5C7-886DD5DB415F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{636AC2E0-387D-4443-A5C7-886DD5DB415F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4001,7 +4000,7 @@
         <xdr:cNvPr id="74" name="TextBox 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE99FC87-EC2B-4465-983E-5F11B397FFEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE99FC87-EC2B-4465-983E-5F11B397FFEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4056,7 +4055,7 @@
         <xdr:cNvPr id="75" name="TextBox 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EAD88C-EEB9-4B60-97AC-A745D0728AD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{96EAD88C-EEB9-4B60-97AC-A745D0728AD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4111,7 +4110,7 @@
         <xdr:cNvPr id="76" name="TextBox 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D533DFE-17B7-40B3-BDE8-EDCD4C8BEFB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D533DFE-17B7-40B3-BDE8-EDCD4C8BEFB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4166,7 +4165,7 @@
         <xdr:cNvPr id="77" name="TextBox 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F02BFD-DB8D-4CEB-8F79-94B09981F82A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45F02BFD-DB8D-4CEB-8F79-94B09981F82A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4221,7 +4220,7 @@
         <xdr:cNvPr id="78" name="TextBox 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1115A1E8-4112-4802-A3EF-C9DB8EFFC675}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1115A1E8-4112-4802-A3EF-C9DB8EFFC675}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4276,7 +4275,7 @@
         <xdr:cNvPr id="79" name="TextBox 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E5D3A6-F63A-4957-A30E-A1BD8DF23FE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8E5D3A6-F63A-4957-A30E-A1BD8DF23FE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4331,7 +4330,7 @@
         <xdr:cNvPr id="80" name="TextBox 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78900A5B-7994-4C50-A7E7-344CFC9ADCF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78900A5B-7994-4C50-A7E7-344CFC9ADCF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4386,7 +4385,7 @@
         <xdr:cNvPr id="81" name="TextBox 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF3A265-1881-4760-82EB-B17135495E3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DF3A265-1881-4760-82EB-B17135495E3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4441,7 +4440,7 @@
         <xdr:cNvPr id="82" name="TextBox 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB84E1C-E8C6-4A14-9FD8-17F0073DB3E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AB84E1C-E8C6-4A14-9FD8-17F0073DB3E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4496,7 +4495,7 @@
         <xdr:cNvPr id="83" name="TextBox 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D513B4C3-89B2-4A4E-973C-D07291DF3ED6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D513B4C3-89B2-4A4E-973C-D07291DF3ED6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4551,7 +4550,7 @@
         <xdr:cNvPr id="84" name="TextBox 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A197B3F8-E1C3-4360-AA87-6DB1C898A96D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A197B3F8-E1C3-4360-AA87-6DB1C898A96D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4606,7 +4605,7 @@
         <xdr:cNvPr id="85" name="TextBox 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3696C9-A623-4254-BEF5-1B80F5186F83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C3696C9-A623-4254-BEF5-1B80F5186F83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4661,7 +4660,7 @@
         <xdr:cNvPr id="86" name="TextBox 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B087A155-D554-4BC3-BFDC-964FA5A30E00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B087A155-D554-4BC3-BFDC-964FA5A30E00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4716,7 +4715,7 @@
         <xdr:cNvPr id="87" name="TextBox 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36CE13DA-0DFB-45F6-A723-34F3F9316FD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36CE13DA-0DFB-45F6-A723-34F3F9316FD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4771,7 +4770,7 @@
         <xdr:cNvPr id="88" name="TextBox 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813B343F-5D85-4D13-BDEE-F1FAA80427E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{813B343F-5D85-4D13-BDEE-F1FAA80427E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4826,7 +4825,7 @@
         <xdr:cNvPr id="89" name="TextBox 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D4E16D9-9BA2-4DC1-941F-761099C47B30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D4E16D9-9BA2-4DC1-941F-761099C47B30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4881,7 +4880,7 @@
         <xdr:cNvPr id="90" name="TextBox 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5706A4D5-ECA1-4519-B127-F117AA146607}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5706A4D5-ECA1-4519-B127-F117AA146607}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4936,7 +4935,7 @@
         <xdr:cNvPr id="91" name="TextBox 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99AFC9DD-DD12-4130-A6CB-5308CB5385F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99AFC9DD-DD12-4130-A6CB-5308CB5385F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4991,7 +4990,7 @@
         <xdr:cNvPr id="92" name="TextBox 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{891D342E-96C4-47CF-9543-FAFABD998037}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{891D342E-96C4-47CF-9543-FAFABD998037}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5046,7 +5045,7 @@
         <xdr:cNvPr id="93" name="TextBox 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2336DB4-4F83-4B87-BAFB-F96D9F8AAC07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2336DB4-4F83-4B87-BAFB-F96D9F8AAC07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5101,7 +5100,7 @@
         <xdr:cNvPr id="94" name="TextBox 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAA7D687-F4A1-4154-83A7-AD7A0AED08FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAA7D687-F4A1-4154-83A7-AD7A0AED08FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5156,7 +5155,7 @@
         <xdr:cNvPr id="96" name="TextBox 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7681CE6-5266-4039-B9A6-47B9A269DDF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7681CE6-5266-4039-B9A6-47B9A269DDF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5211,7 +5210,7 @@
         <xdr:cNvPr id="97" name="TextBox 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A97F58-D34B-438B-A03D-A5296A383F98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59A97F58-D34B-438B-A03D-A5296A383F98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5266,7 +5265,7 @@
         <xdr:cNvPr id="98" name="TextBox 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1F8818A-79A2-4D56-A6BC-35B2E04FC32B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1F8818A-79A2-4D56-A6BC-35B2E04FC32B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5321,7 +5320,7 @@
         <xdr:cNvPr id="99" name="TextBox 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E5B175-A56E-40A4-AA22-8F1EE3DB8EBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14E5B175-A56E-40A4-AA22-8F1EE3DB8EBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5376,7 +5375,7 @@
         <xdr:cNvPr id="100" name="TextBox 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2352D5-1B60-48EE-9F82-F609E4A9DFCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF2352D5-1B60-48EE-9F82-F609E4A9DFCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5431,7 +5430,7 @@
         <xdr:cNvPr id="101" name="TextBox 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D5A2788-D078-4A5B-982C-69D291DB090B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D5A2788-D078-4A5B-982C-69D291DB090B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5486,7 +5485,7 @@
         <xdr:cNvPr id="102" name="TextBox 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9E6CB9-7BD2-40A0-B13C-0BD2E64A62A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA9E6CB9-7BD2-40A0-B13C-0BD2E64A62A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5541,7 +5540,7 @@
         <xdr:cNvPr id="103" name="TextBox 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DEFC080-7DE0-45A7-B13D-78C43C0CF837}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DEFC080-7DE0-45A7-B13D-78C43C0CF837}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5596,7 +5595,7 @@
         <xdr:cNvPr id="104" name="TextBox 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F4D400-CD11-4686-A0CC-B8E26A4F3A81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37F4D400-CD11-4686-A0CC-B8E26A4F3A81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5651,7 +5650,7 @@
         <xdr:cNvPr id="105" name="TextBox 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F8021D-F7DE-4AE5-9D04-E9AE6AB04CF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48F8021D-F7DE-4AE5-9D04-E9AE6AB04CF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5706,7 +5705,7 @@
         <xdr:cNvPr id="106" name="TextBox 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEF3CE8-E436-4D43-B45D-AB440ECC1C29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3AEF3CE8-E436-4D43-B45D-AB440ECC1C29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5761,7 +5760,7 @@
         <xdr:cNvPr id="107" name="TextBox 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C845DB-6BAC-4C7E-8926-B945F0E1143E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21C845DB-6BAC-4C7E-8926-B945F0E1143E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5821,7 +5820,7 @@
         <xdr:cNvPr id="108" name="Picture 107" descr="https://m.media-amazon.com/images/I/71xO2I6fM-L._SX425_.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8757B671-C743-4F7B-9422-D4F6F324BC63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8757B671-C743-4F7B-9422-D4F6F324BC63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5877,7 +5876,7 @@
         <xdr:cNvPr id="109" name="TextBox 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E867871-C08F-4005-B108-6F588DE227A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E867871-C08F-4005-B108-6F588DE227A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5932,7 +5931,7 @@
         <xdr:cNvPr id="110" name="TextBox 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C85C445-45AE-4799-B680-3785E7A30DC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C85C445-45AE-4799-B680-3785E7A30DC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5987,7 +5986,7 @@
         <xdr:cNvPr id="111" name="TextBox 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8B2C86-4EE5-4E40-BE94-0E38B0D4AC21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B8B2C86-4EE5-4E40-BE94-0E38B0D4AC21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6042,7 +6041,7 @@
         <xdr:cNvPr id="112" name="TextBox 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967F4153-D729-455A-A532-0DC1956AE45E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{967F4153-D729-455A-A532-0DC1956AE45E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6097,7 +6096,7 @@
         <xdr:cNvPr id="113" name="TextBox 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8390E3-7497-4593-BE79-81338F9DB13F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB8390E3-7497-4593-BE79-81338F9DB13F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6152,7 +6151,7 @@
         <xdr:cNvPr id="114" name="TextBox 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D57A9D45-9754-4D87-A4D3-645C11A82F22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D57A9D45-9754-4D87-A4D3-645C11A82F22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6207,7 +6206,7 @@
         <xdr:cNvPr id="115" name="TextBox 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50DDC43-A9D0-4E2F-987F-C663BA1D913D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D50DDC43-A9D0-4E2F-987F-C663BA1D913D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6262,7 +6261,7 @@
         <xdr:cNvPr id="116" name="TextBox 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C542511-0768-4640-8CA0-00ED55D728C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C542511-0768-4640-8CA0-00ED55D728C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6317,7 +6316,7 @@
         <xdr:cNvPr id="117" name="TextBox 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B59B4A9A-EFF4-4637-8CEC-97BD7A50284B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B59B4A9A-EFF4-4637-8CEC-97BD7A50284B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6372,7 +6371,7 @@
         <xdr:cNvPr id="118" name="TextBox 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F0C772-4857-4BC9-A17A-50F74E9349B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9F0C772-4857-4BC9-A17A-50F74E9349B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6427,7 +6426,7 @@
         <xdr:cNvPr id="119" name="TextBox 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84450F6D-7067-4362-931B-624FE76ED92A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84450F6D-7067-4362-931B-624FE76ED92A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6482,7 +6481,7 @@
         <xdr:cNvPr id="120" name="TextBox 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517890AE-DCEA-4074-89BB-7F259C99C19B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{517890AE-DCEA-4074-89BB-7F259C99C19B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6537,7 +6536,7 @@
         <xdr:cNvPr id="121" name="TextBox 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C046205-BCA5-43A5-A62F-63EFB8A33676}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C046205-BCA5-43A5-A62F-63EFB8A33676}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6592,7 +6591,7 @@
         <xdr:cNvPr id="122" name="TextBox 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1353D24A-5052-44B2-BFDB-D8C8C23A1EA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1353D24A-5052-44B2-BFDB-D8C8C23A1EA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6647,7 +6646,7 @@
         <xdr:cNvPr id="123" name="TextBox 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E5F6AE2-E24E-41F2-BA6A-5BDFAD6E5454}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E5F6AE2-E24E-41F2-BA6A-5BDFAD6E5454}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6702,7 +6701,7 @@
         <xdr:cNvPr id="124" name="TextBox 123">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492B1AB2-D500-43FB-8436-48BFD025BDB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{492B1AB2-D500-43FB-8436-48BFD025BDB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6757,7 +6756,7 @@
         <xdr:cNvPr id="125" name="TextBox 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D9EDB1B-8E3E-4704-A913-6E17683AD854}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D9EDB1B-8E3E-4704-A913-6E17683AD854}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6812,7 +6811,7 @@
         <xdr:cNvPr id="126" name="TextBox 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162E5DBB-BD99-4BE9-B74F-DBD1452946CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{162E5DBB-BD99-4BE9-B74F-DBD1452946CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6867,7 +6866,7 @@
         <xdr:cNvPr id="127" name="TextBox 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AAC510E-38C8-4126-9B94-BC40D27AE714}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AAC510E-38C8-4126-9B94-BC40D27AE714}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6922,7 +6921,7 @@
         <xdr:cNvPr id="128" name="TextBox 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71F69AE-C519-402D-83D9-2D844886EA30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A71F69AE-C519-402D-83D9-2D844886EA30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6977,7 +6976,7 @@
         <xdr:cNvPr id="129" name="TextBox 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3D71D44-FCD0-4180-A312-257594E1FF8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3D71D44-FCD0-4180-A312-257594E1FF8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7032,7 +7031,7 @@
         <xdr:cNvPr id="130" name="TextBox 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC98AC5-EFA1-477B-A105-B30F4D3942A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DC98AC5-EFA1-477B-A105-B30F4D3942A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7087,7 +7086,7 @@
         <xdr:cNvPr id="131" name="TextBox 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116590D3-3955-4E6C-88F6-724BCA4A2D03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{116590D3-3955-4E6C-88F6-724BCA4A2D03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7142,7 +7141,7 @@
         <xdr:cNvPr id="132" name="TextBox 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E0713EE-2B48-4DF9-9DF5-0B2A1AD163C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E0713EE-2B48-4DF9-9DF5-0B2A1AD163C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7202,7 +7201,7 @@
         <xdr:cNvPr id="134" name="Picture 133" descr="https://m.media-amazon.com/images/I/51QntFfKDIL._SX425_.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE36CCE-9A0A-4084-BF1A-BBC3EDAED8D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFE36CCE-9A0A-4084-BF1A-BBC3EDAED8D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7258,7 +7257,7 @@
         <xdr:cNvPr id="135" name="TextBox 134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89677F9-F970-4261-9AB7-CEDB5C8AA9C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C89677F9-F970-4261-9AB7-CEDB5C8AA9C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7313,7 +7312,7 @@
         <xdr:cNvPr id="136" name="TextBox 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB71B546-9AE2-4CDE-AD88-53BFD44EF66D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB71B546-9AE2-4CDE-AD88-53BFD44EF66D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7368,7 +7367,7 @@
         <xdr:cNvPr id="137" name="TextBox 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7075799-D0CF-4513-AD78-B1ABB57AAFE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7075799-D0CF-4513-AD78-B1ABB57AAFE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7423,7 +7422,7 @@
         <xdr:cNvPr id="138" name="TextBox 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46DF918D-9C04-4785-84F0-BA27C19533E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46DF918D-9C04-4785-84F0-BA27C19533E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7478,7 +7477,7 @@
         <xdr:cNvPr id="139" name="TextBox 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31087561-3C36-4FE5-9D0E-4DF8980C82F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31087561-3C36-4FE5-9D0E-4DF8980C82F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7533,7 +7532,7 @@
         <xdr:cNvPr id="140" name="TextBox 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F566C38-458A-4072-8076-FF1D27885E64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F566C38-458A-4072-8076-FF1D27885E64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7588,7 +7587,7 @@
         <xdr:cNvPr id="141" name="TextBox 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374D4F2E-0492-460F-8EDD-A4A349CA8903}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{374D4F2E-0492-460F-8EDD-A4A349CA8903}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7643,7 +7642,7 @@
         <xdr:cNvPr id="142" name="TextBox 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EA28CCB-03D1-4FE6-B9FC-F19D6C5E4CA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5EA28CCB-03D1-4FE6-B9FC-F19D6C5E4CA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7698,7 +7697,7 @@
         <xdr:cNvPr id="143" name="TextBox 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB37CECC-F7DB-4206-90D7-D9B75AF62382}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB37CECC-F7DB-4206-90D7-D9B75AF62382}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7753,7 +7752,7 @@
         <xdr:cNvPr id="144" name="TextBox 143">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298A1D5A-9194-420D-B513-F131A8AEC9B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{298A1D5A-9194-420D-B513-F131A8AEC9B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7808,7 +7807,7 @@
         <xdr:cNvPr id="145" name="TextBox 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60A04CC-0F3A-4FFD-A879-D30A54E1A7B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C60A04CC-0F3A-4FFD-A879-D30A54E1A7B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7863,7 +7862,7 @@
         <xdr:cNvPr id="146" name="TextBox 145">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C8787F5-D026-4E41-A884-609881A45050}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C8787F5-D026-4E41-A884-609881A45050}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7918,7 +7917,7 @@
         <xdr:cNvPr id="147" name="TextBox 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E06E27-5B16-435B-871A-1CC178849E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1E06E27-5B16-435B-871A-1CC178849E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7973,7 +7972,7 @@
         <xdr:cNvPr id="148" name="TextBox 147">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D636982D-D693-4518-B2A5-643ABF00DE06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D636982D-D693-4518-B2A5-643ABF00DE06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8028,7 +8027,7 @@
         <xdr:cNvPr id="149" name="TextBox 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B16C6D-9472-4EDC-BCFE-2F55D1E66F39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5B16C6D-9472-4EDC-BCFE-2F55D1E66F39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8083,7 +8082,7 @@
         <xdr:cNvPr id="150" name="TextBox 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF5122FC-A0D3-4617-A092-B48C3FF16E52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF5122FC-A0D3-4617-A092-B48C3FF16E52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8138,7 +8137,7 @@
         <xdr:cNvPr id="151" name="TextBox 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B91B1B6-DC70-4134-AEDA-4C05E31F01FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B91B1B6-DC70-4134-AEDA-4C05E31F01FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8193,7 +8192,7 @@
         <xdr:cNvPr id="152" name="TextBox 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34991365-F70E-4667-B955-11EFF2A9B464}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34991365-F70E-4667-B955-11EFF2A9B464}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8248,7 +8247,7 @@
         <xdr:cNvPr id="153" name="TextBox 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ECEDA4B-0ADF-4582-94B3-D11BA91117E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ECEDA4B-0ADF-4582-94B3-D11BA91117E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8303,7 +8302,7 @@
         <xdr:cNvPr id="154" name="TextBox 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BEE24A-A9B9-46A4-9695-91AAED17B060}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BEE24A-A9B9-46A4-9695-91AAED17B060}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8358,7 +8357,7 @@
         <xdr:cNvPr id="155" name="TextBox 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C090B93B-F917-45D2-9D8D-7900F8DAC487}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C090B93B-F917-45D2-9D8D-7900F8DAC487}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8413,7 +8412,7 @@
         <xdr:cNvPr id="156" name="TextBox 155">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED121C3E-9367-46C4-B10C-8F3B206B658E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED121C3E-9367-46C4-B10C-8F3B206B658E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8468,7 +8467,7 @@
         <xdr:cNvPr id="157" name="TextBox 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95EAC410-018C-4CA9-84C6-E8160C2A459C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95EAC410-018C-4CA9-84C6-E8160C2A459C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8523,7 +8522,7 @@
         <xdr:cNvPr id="158" name="TextBox 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967F7DE3-0046-47C8-AE21-163D9262A797}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{967F7DE3-0046-47C8-AE21-163D9262A797}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8583,7 +8582,7 @@
         <xdr:cNvPr id="160" name="Picture 159" descr="https://m.media-amazon.com/images/I/41nssan30BL.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F32CF58-3AF4-4BE5-8813-2A62C2026A3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F32CF58-3AF4-4BE5-8813-2A62C2026A3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8639,7 +8638,7 @@
         <xdr:cNvPr id="161" name="TextBox 160">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A04A7D7-AA78-4A28-8700-D8FDF7DA0F0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A04A7D7-AA78-4A28-8700-D8FDF7DA0F0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8694,7 +8693,7 @@
         <xdr:cNvPr id="162" name="TextBox 161">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC89166-9D38-4B93-B359-9588435E7AA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEC89166-9D38-4B93-B359-9588435E7AA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8749,7 +8748,7 @@
         <xdr:cNvPr id="163" name="TextBox 162">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766DDBC9-C016-4301-BEE2-982901091AA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{766DDBC9-C016-4301-BEE2-982901091AA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8804,7 +8803,7 @@
         <xdr:cNvPr id="164" name="TextBox 163">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1593372A-2BEB-4AE8-8BA8-0F73039A391B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1593372A-2BEB-4AE8-8BA8-0F73039A391B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8859,7 +8858,7 @@
         <xdr:cNvPr id="165" name="TextBox 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B837A4C5-3C81-46F2-B1FF-DA1558E61CE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B837A4C5-3C81-46F2-B1FF-DA1558E61CE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8914,7 +8913,7 @@
         <xdr:cNvPr id="166" name="TextBox 165">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B70C24-6D46-495E-930F-18F12690A780}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6B70C24-6D46-495E-930F-18F12690A780}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8969,7 +8968,7 @@
         <xdr:cNvPr id="167" name="TextBox 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72F5E62-75B2-4FF9-AD53-F43537B2AC2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E72F5E62-75B2-4FF9-AD53-F43537B2AC2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9024,7 +9023,7 @@
         <xdr:cNvPr id="168" name="TextBox 167">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E2447F-48E3-427D-94A6-A149CCFD70E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4E2447F-48E3-427D-94A6-A149CCFD70E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9079,7 +9078,7 @@
         <xdr:cNvPr id="169" name="TextBox 168">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7653E20F-7C72-4FBA-A5DE-203CF804EADC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7653E20F-7C72-4FBA-A5DE-203CF804EADC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9134,7 +9133,7 @@
         <xdr:cNvPr id="170" name="TextBox 169">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B3CE6E-602F-4C0B-807D-49CFF4EFEFA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71B3CE6E-602F-4C0B-807D-49CFF4EFEFA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9189,7 +9188,7 @@
         <xdr:cNvPr id="171" name="TextBox 170">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC7B57E-719F-4FC7-93F9-3E030712DEEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DC7B57E-719F-4FC7-93F9-3E030712DEEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9244,7 +9243,7 @@
         <xdr:cNvPr id="172" name="TextBox 171">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20682512-E446-4DDE-B70F-D891FCEDB05B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20682512-E446-4DDE-B70F-D891FCEDB05B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9299,7 +9298,7 @@
         <xdr:cNvPr id="173" name="TextBox 172">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BB21E9-8054-455F-A77F-78F411722B57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47BB21E9-8054-455F-A77F-78F411722B57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9354,7 +9353,7 @@
         <xdr:cNvPr id="174" name="TextBox 173">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85ACA7D-F1A0-4188-89BD-496CFC27E817}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C85ACA7D-F1A0-4188-89BD-496CFC27E817}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9409,7 +9408,7 @@
         <xdr:cNvPr id="175" name="TextBox 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44427892-5B19-4260-9E34-EB47FD9AB093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44427892-5B19-4260-9E34-EB47FD9AB093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9464,7 +9463,7 @@
         <xdr:cNvPr id="176" name="TextBox 175">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B36D8D0-FAD7-45F8-81A3-31218DA3279F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B36D8D0-FAD7-45F8-81A3-31218DA3279F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9519,7 +9518,7 @@
         <xdr:cNvPr id="177" name="TextBox 176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA00F64-B3FE-4B0A-BFA1-756C006677B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DA00F64-B3FE-4B0A-BFA1-756C006677B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9574,7 +9573,7 @@
         <xdr:cNvPr id="178" name="TextBox 177">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8228B45A-614C-460C-A0E5-0A4BD4287ADC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8228B45A-614C-460C-A0E5-0A4BD4287ADC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9629,7 +9628,7 @@
         <xdr:cNvPr id="179" name="TextBox 178">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AC602D-2C79-48C2-8DF8-EF395F707BCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44AC602D-2C79-48C2-8DF8-EF395F707BCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9684,7 +9683,7 @@
         <xdr:cNvPr id="180" name="TextBox 179">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAAEEDE1-4C58-45D9-899C-168B26AD1D36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CAAEEDE1-4C58-45D9-899C-168B26AD1D36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9739,7 +9738,7 @@
         <xdr:cNvPr id="181" name="TextBox 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E2D487D-6559-4375-A3D5-AA49394A6EE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E2D487D-6559-4375-A3D5-AA49394A6EE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9794,7 +9793,7 @@
         <xdr:cNvPr id="182" name="TextBox 181">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65A0710-7A62-49C6-9C46-B46062B9AD5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F65A0710-7A62-49C6-9C46-B46062B9AD5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9849,7 +9848,7 @@
         <xdr:cNvPr id="183" name="TextBox 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45ECFD0D-B0D9-4C2D-B492-050B44181360}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45ECFD0D-B0D9-4C2D-B492-050B44181360}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9904,7 +9903,7 @@
         <xdr:cNvPr id="184" name="TextBox 183">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{243CBD4C-DF38-4C48-84B7-12D14102FAE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{243CBD4C-DF38-4C48-84B7-12D14102FAE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9964,7 +9963,7 @@
         <xdr:cNvPr id="186" name="Picture 185" descr="https://m.media-amazon.com/images/I/6171-eOjqJS._SX522_.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779A7BE8-E6B1-4797-AB33-8472C8A134B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{779A7BE8-E6B1-4797-AB33-8472C8A134B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10020,7 +10019,7 @@
         <xdr:cNvPr id="187" name="TextBox 186">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A958C74-AB78-4877-856B-22BFE283011A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A958C74-AB78-4877-856B-22BFE283011A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10075,7 +10074,7 @@
         <xdr:cNvPr id="188" name="TextBox 187">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDBB0F0-432D-4C00-965C-82E429BFE1F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBDBB0F0-432D-4C00-965C-82E429BFE1F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10130,7 +10129,7 @@
         <xdr:cNvPr id="189" name="TextBox 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F50A03-4CF3-42CB-AAAE-771D9C8A3D8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2F50A03-4CF3-42CB-AAAE-771D9C8A3D8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10185,7 +10184,7 @@
         <xdr:cNvPr id="190" name="TextBox 189">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D0997F-B2B2-4CBC-A983-0792BDAC5E4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06D0997F-B2B2-4CBC-A983-0792BDAC5E4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10240,7 +10239,7 @@
         <xdr:cNvPr id="191" name="TextBox 190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BA620C-DB26-4CCF-9821-6FC865A158FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11BA620C-DB26-4CCF-9821-6FC865A158FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10295,7 +10294,7 @@
         <xdr:cNvPr id="192" name="TextBox 191">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA9879D-E840-46F2-8D8B-5AFB284AF5BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDA9879D-E840-46F2-8D8B-5AFB284AF5BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10350,7 +10349,7 @@
         <xdr:cNvPr id="193" name="TextBox 192">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA93DE05-8E45-4F4E-9794-187606BA7463}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA93DE05-8E45-4F4E-9794-187606BA7463}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10405,7 +10404,7 @@
         <xdr:cNvPr id="194" name="TextBox 193">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D171FDE-9706-460E-A1C3-CEF1DE7CAFC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D171FDE-9706-460E-A1C3-CEF1DE7CAFC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10460,7 +10459,7 @@
         <xdr:cNvPr id="195" name="TextBox 194">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03E47B7B-EF47-4B64-B4AF-C0AAD74A76A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03E47B7B-EF47-4B64-B4AF-C0AAD74A76A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10515,7 +10514,7 @@
         <xdr:cNvPr id="196" name="TextBox 195">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21951F74-D38C-40F9-B08D-B7E79A84F23E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21951F74-D38C-40F9-B08D-B7E79A84F23E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10570,7 +10569,7 @@
         <xdr:cNvPr id="197" name="TextBox 196">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7752A1-36A4-4ABB-97EE-F078694BC872}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF7752A1-36A4-4ABB-97EE-F078694BC872}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10625,7 +10624,7 @@
         <xdr:cNvPr id="198" name="TextBox 197">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAEBAAE8-0894-4692-B653-A348A3826D1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAEBAAE8-0894-4692-B653-A348A3826D1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10680,7 +10679,7 @@
         <xdr:cNvPr id="199" name="TextBox 198">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6BB3CC7-4D2E-41AE-AC8B-6099B0692FC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6BB3CC7-4D2E-41AE-AC8B-6099B0692FC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10735,7 +10734,7 @@
         <xdr:cNvPr id="200" name="TextBox 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA9DD652-C9CD-4021-9A13-6916CDA4F764}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA9DD652-C9CD-4021-9A13-6916CDA4F764}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10790,7 +10789,7 @@
         <xdr:cNvPr id="201" name="TextBox 200">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4AD2AF4-2BA9-4BB2-8D0C-D3C4E72B1B67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4AD2AF4-2BA9-4BB2-8D0C-D3C4E72B1B67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10845,7 +10844,7 @@
         <xdr:cNvPr id="202" name="TextBox 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA1B5514-5AA3-40DF-B990-E2EEA182AE4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA1B5514-5AA3-40DF-B990-E2EEA182AE4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10900,7 +10899,7 @@
         <xdr:cNvPr id="203" name="TextBox 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7CC032-206F-4A57-AAF5-4B3BD0E9326A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F7CC032-206F-4A57-AAF5-4B3BD0E9326A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10955,7 +10954,7 @@
         <xdr:cNvPr id="204" name="TextBox 203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6D80FB-3578-4AD4-9D9B-B00C7C8E3727}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B6D80FB-3578-4AD4-9D9B-B00C7C8E3727}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11010,7 +11009,7 @@
         <xdr:cNvPr id="205" name="TextBox 204">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3619B980-072B-45EC-82D1-5516C95F11ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3619B980-072B-45EC-82D1-5516C95F11ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11065,7 +11064,7 @@
         <xdr:cNvPr id="206" name="TextBox 205">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A615C8B-CA91-4A46-885C-D9B5A180C19C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A615C8B-CA91-4A46-885C-D9B5A180C19C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11120,7 +11119,7 @@
         <xdr:cNvPr id="207" name="TextBox 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B11EF023-C5BA-442F-99A8-C390BF141129}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B11EF023-C5BA-442F-99A8-C390BF141129}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11175,7 +11174,7 @@
         <xdr:cNvPr id="208" name="TextBox 207">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE1874A-FB8F-4537-950F-312AB13C570D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCE1874A-FB8F-4537-950F-312AB13C570D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11230,7 +11229,7 @@
         <xdr:cNvPr id="209" name="TextBox 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E5C3D8-D91E-4D11-84D1-E838FA3ACADF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72E5C3D8-D91E-4D11-84D1-E838FA3ACADF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11285,7 +11284,7 @@
         <xdr:cNvPr id="210" name="TextBox 209">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6B2D6C7-E9F8-46F2-90BB-2172C8EE6467}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6B2D6C7-E9F8-46F2-90BB-2172C8EE6467}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11340,7 +11339,7 @@
         <xdr:cNvPr id="212" name="TextBox 211">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354A6B95-6890-4022-900E-5C6F3B3521E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{354A6B95-6890-4022-900E-5C6F3B3521E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11395,7 +11394,7 @@
         <xdr:cNvPr id="213" name="TextBox 212">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4F23B0-FA4F-4B17-BDB8-A193DED5519A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD4F23B0-FA4F-4B17-BDB8-A193DED5519A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11450,7 +11449,7 @@
         <xdr:cNvPr id="214" name="TextBox 213">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0EDBA8-0436-40DB-A70C-37D057F774C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA0EDBA8-0436-40DB-A70C-37D057F774C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11505,7 +11504,7 @@
         <xdr:cNvPr id="215" name="TextBox 214">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8461AB-8179-449A-BD35-6478A8DACD50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D8461AB-8179-449A-BD35-6478A8DACD50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11560,7 +11559,7 @@
         <xdr:cNvPr id="216" name="TextBox 215">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEC37D9-9A10-474E-85FA-ACF947B33C09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACEC37D9-9A10-474E-85FA-ACF947B33C09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11615,7 +11614,7 @@
         <xdr:cNvPr id="217" name="TextBox 216">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0AE23E6-F7AD-4639-ABE1-33FF5A9408C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0AE23E6-F7AD-4639-ABE1-33FF5A9408C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11670,7 +11669,7 @@
         <xdr:cNvPr id="218" name="TextBox 217">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F069F00-B258-497C-AF07-69A310B206DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F069F00-B258-497C-AF07-69A310B206DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11725,7 +11724,7 @@
         <xdr:cNvPr id="219" name="TextBox 218">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46637C30-A46D-47A0-A2DD-BC66479A7E5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46637C30-A46D-47A0-A2DD-BC66479A7E5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11780,7 +11779,7 @@
         <xdr:cNvPr id="220" name="TextBox 219">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96B208E-7D5C-42DA-95D0-658DF1211107}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F96B208E-7D5C-42DA-95D0-658DF1211107}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11835,7 +11834,7 @@
         <xdr:cNvPr id="221" name="TextBox 220">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BFD9050-48B3-4DC8-B5A0-4002F6258C4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1BFD9050-48B3-4DC8-B5A0-4002F6258C4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11890,7 +11889,7 @@
         <xdr:cNvPr id="222" name="TextBox 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B9B374-A4DC-4610-BFF7-9450E560562C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8B9B374-A4DC-4610-BFF7-9450E560562C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11945,7 +11944,7 @@
         <xdr:cNvPr id="223" name="TextBox 222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D27628-C5B9-4215-B750-7D723053E0E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40D27628-C5B9-4215-B750-7D723053E0E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12005,7 +12004,7 @@
         <xdr:cNvPr id="224" name="Picture 223" descr="https://m.media-amazon.com/images/I/51Q6O-jS7fL._SX522_.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57CD6874-5BBC-4419-ADFC-5B8AAA23D04B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57CD6874-5BBC-4419-ADFC-5B8AAA23D04B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12127,23 +12126,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -12179,23 +12161,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12371,11 +12336,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12391,41 +12356,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="36" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="44"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="43"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
@@ -12433,13 +12398,13 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
@@ -12447,13 +12412,13 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
@@ -12461,35 +12426,35 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="2"/>
       <c r="G6" s="7"/>
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="8"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
@@ -12542,7 +12507,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="19"/>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -12566,31 +12531,31 @@
         <v>24</v>
       </c>
       <c r="G11" s="20"/>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="26" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46">
+      <c r="A12" s="27">
         <v>3</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="27">
         <v>2</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="29" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="26" t="s">
         <v>38</v>
       </c>
     </row>
@@ -12614,7 +12579,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -12638,7 +12603,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="26" t="s">
         <v>49</v>
       </c>
     </row>
@@ -12662,7 +12627,7 @@
         <v>41</v>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -12686,7 +12651,7 @@
         <v>44</v>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="26" t="s">
         <v>48</v>
       </c>
     </row>
@@ -12710,7 +12675,7 @@
         <v>57</v>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="26" t="s">
         <v>58</v>
       </c>
     </row>
@@ -12734,11 +12699,11 @@
         <v>62</v>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A8:C8"/>
@@ -12753,15 +12718,15 @@
     <mergeCell ref="A7:C7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" xr:uid="{95090202-98CA-48D0-80C2-810AD281CF0A}"/>
-    <hyperlink ref="F11" r:id="rId2" xr:uid="{1A0A4E7E-BFA4-4F9E-8347-38626A75805F}"/>
-    <hyperlink ref="F12" r:id="rId3" xr:uid="{E4DFBFFA-BC9F-49FE-A7B2-912A75D27B81}"/>
-    <hyperlink ref="F13" r:id="rId4" xr:uid="{CFF1DFF4-FE2E-4B9B-AB26-8B4BBE027189}"/>
-    <hyperlink ref="F15" r:id="rId5" xr:uid="{6E4559C2-03AC-41F2-8599-27803D24DCB2}"/>
-    <hyperlink ref="F16" r:id="rId6" xr:uid="{EBC17C00-5055-4AF9-91E5-5EA5012A0079}"/>
-    <hyperlink ref="F14" r:id="rId7" xr:uid="{87433A77-85FC-40A5-A025-AF3431442036}"/>
-    <hyperlink ref="F17" r:id="rId8" xr:uid="{7E8351AE-B094-4344-AE8A-FDE94465F40C}"/>
-    <hyperlink ref="F18" r:id="rId9" xr:uid="{28F1ACF0-04FA-4CD4-9B22-849E8C618BAE}"/>
+    <hyperlink ref="F10" r:id="rId1"/>
+    <hyperlink ref="F11" r:id="rId2"/>
+    <hyperlink ref="F12" r:id="rId3"/>
+    <hyperlink ref="F13" r:id="rId4"/>
+    <hyperlink ref="F15" r:id="rId5"/>
+    <hyperlink ref="F16" r:id="rId6"/>
+    <hyperlink ref="F14" r:id="rId7"/>
+    <hyperlink ref="F17" r:id="rId8"/>
+    <hyperlink ref="F18" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId10"/>

--- a/R-Car Starter Kit.xlsx
+++ b/R-Car Starter Kit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12337,22 +12337,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="58.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="35" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -12729,7 +12732,7 @@
     <hyperlink ref="F18" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId10"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId10"/>
   <drawing r:id="rId11"/>
 </worksheet>
 </file>